--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H2">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I2">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J2">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>124.6482588456871</v>
+        <v>3.857402097414667</v>
       </c>
       <c r="R2">
-        <v>1121.834329611184</v>
+        <v>34.716618876732</v>
       </c>
       <c r="S2">
-        <v>0.9036245664322697</v>
+        <v>0.01603638770528304</v>
       </c>
       <c r="T2">
-        <v>0.9036245664322696</v>
+        <v>0.01603638770528304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H3">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I3">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J3">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>1.833320203499111</v>
+        <v>212.3044766178093</v>
       </c>
       <c r="R3">
-        <v>16.499881831492</v>
+        <v>1910.740289560284</v>
       </c>
       <c r="S3">
-        <v>0.0132904638168215</v>
+        <v>0.8826139491374878</v>
       </c>
       <c r="T3">
-        <v>0.01329046381682149</v>
+        <v>0.8826139491374878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07465466666666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H4">
-        <v>0.223964</v>
+        <v>168.648441</v>
       </c>
       <c r="I4">
-        <v>0.002073948231580021</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J4">
-        <v>0.002073948231580021</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>0.2819389228817777</v>
+        <v>17.047827658485</v>
       </c>
       <c r="R4">
-        <v>2.537450305936</v>
+        <v>153.430448926365</v>
       </c>
       <c r="S4">
-        <v>0.002043886848550574</v>
+        <v>0.07087297796813644</v>
       </c>
       <c r="T4">
-        <v>0.002043886848550574</v>
+        <v>0.07087297796813645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>0.223964</v>
       </c>
       <c r="I5">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J5">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05554566666666666</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N5">
-        <v>0.166637</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q5">
-        <v>0.004146743229777777</v>
+        <v>0.005122604147555556</v>
       </c>
       <c r="R5">
-        <v>0.03732068906799999</v>
+        <v>0.046103437328</v>
       </c>
       <c r="S5">
-        <v>3.00613830294473E-05</v>
+        <v>2.129621545701694E-05</v>
       </c>
       <c r="T5">
-        <v>3.00613830294473E-05</v>
+        <v>2.129621545701695E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3398056666666667</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H6">
-        <v>1.019417</v>
+        <v>0.223964</v>
       </c>
       <c r="I6">
-        <v>0.009439990732406147</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J6">
-        <v>0.009439990732406145</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.776574666666667</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N6">
         <v>11.329724</v>
       </c>
       <c r="O6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q6">
-        <v>1.283301472323111</v>
+        <v>0.2819389228817777</v>
       </c>
       <c r="R6">
-        <v>11.549713250908</v>
+        <v>2.537450305936</v>
       </c>
       <c r="S6">
-        <v>0.009303160327056491</v>
+        <v>0.00117210541249313</v>
       </c>
       <c r="T6">
-        <v>0.009303160327056491</v>
+        <v>0.00117210541249313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3398056666666667</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H7">
-        <v>1.019417</v>
+        <v>0.223964</v>
       </c>
       <c r="I7">
-        <v>0.009439990732406147</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J7">
-        <v>0.009439990732406145</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05554566666666666</v>
+        <v>0.303255</v>
       </c>
       <c r="N7">
-        <v>0.166637</v>
+        <v>0.909765</v>
       </c>
       <c r="O7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q7">
-        <v>0.01887473229211111</v>
+        <v>0.02263940094</v>
       </c>
       <c r="R7">
-        <v>0.169872590629</v>
+        <v>0.20375460846</v>
       </c>
       <c r="S7">
-        <v>0.0001368304053496548</v>
+        <v>9.411884001735721E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001368304053496548</v>
+        <v>9.411884001735725E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.576299333333333</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H8">
-        <v>7.728898</v>
+        <v>1.398145</v>
       </c>
       <c r="I8">
-        <v>0.07157103078692273</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J8">
-        <v>0.07157103078692272</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N8">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q8">
-        <v>9.729586796016889</v>
+        <v>0.03197899383777778</v>
       </c>
       <c r="R8">
-        <v>87.566281164152</v>
+        <v>0.28781094454</v>
       </c>
       <c r="S8">
-        <v>0.07053362583267325</v>
+        <v>0.0001329463537003758</v>
       </c>
       <c r="T8">
-        <v>0.07053362583267324</v>
+        <v>0.0001329463537003758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4660483333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.398145</v>
+      </c>
+      <c r="I9">
+        <v>0.008037632408272877</v>
+      </c>
+      <c r="J9">
+        <v>0.008037632408272877</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.329724</v>
+      </c>
+      <c r="O9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q9">
+        <v>1.760066329108889</v>
+      </c>
+      <c r="R9">
+        <v>15.84059696198</v>
+      </c>
+      <c r="S9">
+        <v>0.007317128297182617</v>
+      </c>
+      <c r="T9">
+        <v>0.007317128297182617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.576299333333333</v>
-      </c>
-      <c r="H9">
-        <v>7.728898</v>
-      </c>
-      <c r="I9">
-        <v>0.07157103078692273</v>
-      </c>
-      <c r="J9">
-        <v>0.07157103078692272</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4660483333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.398145</v>
+      </c>
+      <c r="I10">
+        <v>0.008037632408272877</v>
+      </c>
+      <c r="J10">
+        <v>0.008037632408272877</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.303255</v>
+      </c>
+      <c r="N10">
+        <v>0.909765</v>
+      </c>
+      <c r="O10">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P10">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q10">
+        <v>0.141331487325</v>
+      </c>
+      <c r="R10">
+        <v>1.271983385925</v>
+      </c>
+      <c r="S10">
+        <v>0.0005875577573898837</v>
+      </c>
+      <c r="T10">
+        <v>0.0005875577573898838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.226435333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.679306</v>
+      </c>
+      <c r="I11">
+        <v>0.02115153231285227</v>
+      </c>
+      <c r="J11">
+        <v>0.02115153231285228</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.166637</v>
-      </c>
-      <c r="O9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q9">
-        <v>0.1431022640028889</v>
-      </c>
-      <c r="R9">
-        <v>1.287920376026</v>
-      </c>
-      <c r="S9">
-        <v>0.001037404954249474</v>
-      </c>
-      <c r="T9">
-        <v>0.001037404954249474</v>
+      <c r="M11">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q11">
+        <v>0.08415472207911111</v>
+      </c>
+      <c r="R11">
+        <v>0.757392498712</v>
+      </c>
+      <c r="S11">
+        <v>0.0003498566435154542</v>
+      </c>
+      <c r="T11">
+        <v>0.0003498566435154543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.226435333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.679306</v>
+      </c>
+      <c r="I12">
+        <v>0.02115153231285227</v>
+      </c>
+      <c r="J12">
+        <v>0.02115153231285228</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.329724</v>
+      </c>
+      <c r="O12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q12">
+        <v>4.631724610171555</v>
+      </c>
+      <c r="R12">
+        <v>41.68552149154399</v>
+      </c>
+      <c r="S12">
+        <v>0.01925548068805008</v>
+      </c>
+      <c r="T12">
+        <v>0.01925548068805008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.226435333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.679306</v>
+      </c>
+      <c r="I13">
+        <v>0.02115153231285227</v>
+      </c>
+      <c r="J13">
+        <v>0.02115153231285228</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303255</v>
+      </c>
+      <c r="N13">
+        <v>0.909765</v>
+      </c>
+      <c r="O13">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P13">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q13">
+        <v>0.37192264701</v>
+      </c>
+      <c r="R13">
+        <v>3.34730382309</v>
+      </c>
+      <c r="S13">
+        <v>0.001546194981286736</v>
+      </c>
+      <c r="T13">
+        <v>0.001546194981286736</v>
       </c>
     </row>
   </sheetData>
